--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4412.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4412.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Rizwan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -803,7 +868,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>22/07/2015</t>
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1071,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -1015,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1067,7 +1130,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1119,7 +1182,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1171,7 +1234,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1223,7 +1286,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1275,7 +1338,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1327,7 +1390,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1575,7 +1638,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -1583,7 +1645,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,7 +1697,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1687,7 +1749,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1739,7 +1801,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1791,7 +1853,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1843,7 +1905,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1883,7 +1945,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1891,7 +1952,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1943,7 +2004,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1995,7 +2056,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2047,7 +2108,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2099,7 +2160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2151,7 +2212,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2203,7 +2264,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2255,7 +2316,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4434</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2307,7 +2368,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2359,7 +2420,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2411,7 +2472,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2463,7 +2524,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2515,7 +2576,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2567,7 +2628,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2619,7 +2680,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2671,7 +2732,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2711,7 +2772,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>02/04/2022</t>
@@ -2719,7 +2779,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2771,7 +2831,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2823,7 +2883,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2875,7 +2935,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2927,7 +2987,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2979,7 +3039,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3031,7 +3091,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3083,7 +3143,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3135,7 +3195,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3166,6 +3226,529 @@
       <c r="J53" t="inlineStr">
         <is>
           <t>74</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14.60%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9.22%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.36%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.09%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.13%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4412.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4412.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4412.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4412.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,6 +867,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>22/07/2015</t>
@@ -1071,6 +1071,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -1638,6 +1639,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -1945,6 +1947,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -2772,6 +2775,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>02/04/2022</t>
@@ -3226,529 +3230,6 @@
       <c r="J53" t="inlineStr">
         <is>
           <t>74</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4434</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.60%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14.60%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.63%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.22%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.56%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.36%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.44%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.09%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>36.13%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
